--- a/input/mappings/scaling/EMEP_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_scaling_mapping_SO2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="380" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10020" yWindow="380" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>2D_Degreasing-Cleaning</t>
   </si>
   <si>
-    <t>2D3_Chemical-product-use</t>
-  </si>
-  <si>
     <t>Shipping</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1395,7 +1395,7 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1413,7 +1413,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -1443,7 +1443,7 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -1455,7 +1455,7 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -1467,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -1480,7 +1480,7 @@
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -1493,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -1545,7 +1545,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1589,7 +1589,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -1601,7 +1601,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
@@ -1611,10 +1611,10 @@
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1622,10 +1622,10 @@
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1633,17 +1633,17 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1948,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A6:F15"/>
     </sheetView>
   </sheetViews>
@@ -1976,24 +1976,24 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
       <c r="F2">
         <v>1970</v>
@@ -2001,19 +2001,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
       </c>
       <c r="F3">
         <v>1970</v>
@@ -2021,19 +2021,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
       </c>
       <c r="F4">
         <v>1970</v>
@@ -2041,19 +2041,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
       <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
       </c>
       <c r="F5">
         <v>1970</v>
